--- a/biology/Zoologie/Davaineidae/Davaineidae.xlsx
+++ b/biology/Zoologie/Davaineidae/Davaineidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Davaineidae sont une famille de cestodes de l'ordre des Cyclophyllidea. Cette famille comprend des helminthes parasites des vertébrés[1]. Des différents genres répertoriés dans cette famille, Raillietina est le plus étudié.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Davaineidae sont une famille de cestodes de l'ordre des Cyclophyllidea. Cette famille comprend des helminthes parasites des vertébrés. Des différents genres répertoriés dans cette famille, Raillietina est le plus étudié.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de la famille sont caractérisés par la présence d'une couronne (rostellum) à la pointe du scolex ; ce rostellum est composé de crochets en forme de marteaux et entouré de ventouses[2]. Ces cestodes sont généralement trouvés dans des oiseaux, et parfois dans les mammifères, qui sont des hôtes définitifs. Les hôtes intermédiaires sont de petits insectes tels que les fourmis[3]. Par exemple, les hôtes de Davainea proglottina (long de 1 à 4 mm) sont les poules et ce sont les limaces qui sont les hôtes intermédiaires[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de la famille sont caractérisés par la présence d'une couronne (rostellum) à la pointe du scolex ; ce rostellum est composé de crochets en forme de marteaux et entouré de ventouses. Ces cestodes sont généralement trouvés dans des oiseaux, et parfois dans les mammifères, qui sont des hôtes définitifs. Les hôtes intermédiaires sont de petits insectes tels que les fourmis. Par exemple, les hôtes de Davainea proglottina (long de 1 à 4 mm) sont les poules et ce sont les limaces qui sont les hôtes intermédiaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (13 février 2024)[5], la famille contient les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (13 février 2024), la famille contient les genres suivants :
 Abuladzugnia Spasskii, 1973
 Chapmania Monticelli, 1893
 Cotugnia Diamare, 1893
@@ -560,9 +576,9 @@
 Paroniella Fuhrmann, 1920
 Raillietina Fuhrmann, 1920
 Turdifernandezia Ceccolini &amp; Cianferoni, 2021
-Noms de genres obsolètes[6] :
+Noms de genres obsolètes :
 Fernandezia Lopez-Neyra, 1936 : maintenant Turdifernandezia
-Selon GBIF       (5 novembre 2023)[7] :
+Selon GBIF       (5 novembre 2023) :
 Abuladzugnia Spasskii, 1973
 Baerfainia Yamaguti, 1959
 Buginetta Spassky, 1994
